--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -498,6 +498,9 @@
       <c r="C11" t="str">
         <v>441_蓝星球_Echinops_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -559,7 +562,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010</v>
+        <v>011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -499,7 +499,7 @@
         <v>441_蓝星球_Echinops_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +562,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011</v>
+        <v>0110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -485,6 +485,9 @@
       <c r="C9" t="str">
         <v>389_金合欢_mimosa_undefined_1bunch</v>
       </c>
+      <c r="F9" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
@@ -562,7 +565,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0110</v>
+        <v>03110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -480,13 +480,16 @@
       <c r="C8" t="str">
         <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
+      <c r="F8" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
         <v>389_金合欢_mimosa_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +568,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03110</v>
+        <v>01030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -475,6 +475,9 @@
       <c r="C7" t="str">
         <v>543_柔丽思_undefined_undefined_1bunch</v>
       </c>
+      <c r="F7" t="str">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
@@ -568,7 +571,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01030110</v>
+        <v>0121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -470,6 +470,9 @@
       <c r="C6" t="str">
         <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
       </c>
+      <c r="F6" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
@@ -571,7 +574,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121030110</v>
+        <v>05121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -465,6 +465,9 @@
       <c r="C5" t="str">
         <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
       </c>
+      <c r="F5" t="str">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
@@ -574,7 +577,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05121030110</v>
+        <v>065121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -460,6 +460,9 @@
       <c r="C4" t="str">
         <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
@@ -577,7 +580,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>065121030110</v>
+        <v>0165121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -461,7 +461,7 @@
         <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0165121030110</v>
+        <v>01065121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -455,6 +455,9 @@
         <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
 （dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
@@ -580,7 +583,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01065121030110</v>
+        <v>011065121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -449,6 +449,9 @@
         <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
 （dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
+      <c r="F2" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="C3" t="str" xml:space="preserve">
@@ -456,7 +459,7 @@
 （dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011065121030110</v>
+        <v>010121065121030110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,60 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F15" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +637,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121065121030110</v>
+        <v>0101210651210301106070206050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>601_康乃馨大红_red_undefined_20stems</v>
+        <v>602_康乃馨白_white_undefined_20stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -576,6 +576,9 @@
       <c r="C17" t="str">
         <v>602_康乃馨白_white_undefined_20stems</v>
       </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -637,7 +640,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210651210301106070206050</v>
+        <v>0101210651210301106070206055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,9 +580,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F20" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>82_非洲菊绿 绿扣子_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -640,7 +717,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210651210301106070206055</v>
+        <v>010121065121030110607020605581075106101520100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -656,6 +656,9 @@
       <c r="C27" t="str">
         <v>72_泽娜_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -717,7 +720,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121065121030110607020605581075106101520100</v>
+        <v>010121065121030110607020605581075106101520105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -625,7 +625,7 @@
         <v>82_非洲菊绿 绿扣子_undefined_Gerbera L._20stems</v>
       </c>
       <c r="F23" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -720,7 +720,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121065121030110607020605581075106101520105</v>
+        <v>01012106512103011060702060558107510651520105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,9 +660,74 @@
         <v>5</v>
       </c>
     </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>67_丘比特_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>4</v>
+      </c>
+      <c r="C29" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>480_蝴蝶洋牡丹_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>5</v>
+      </c>
+      <c r="C36" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -720,7 +785,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012106512103011060702060558107510651520105</v>
+        <v>0101210651210301106070206055810751065152010550000051500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -722,7 +722,7 @@
     </row>
     <row r="37">
       <c r="C37" t="str">
-        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,26 +675,41 @@
       <c r="C29" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F29" t="str">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
         <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
         <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
         <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F32" t="str">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="C33" t="str">
         <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F33" t="str">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="C34" t="str">
@@ -719,15 +734,99 @@
       <c r="C36" t="str">
         <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="C37" t="str">
         <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F37" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6</v>
+      </c>
+      <c r="C42" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>7</v>
+      </c>
+      <c r="C44" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L46"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -785,7 +884,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210651210301106070206055810751065152010550000051500</v>
+        <v>01012106512103011060702060558107510651520105591010138515108810101251210108</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-27.xlsx
@@ -886,6 +886,9 @@
       <c r="G2" t="str">
         <v>01012106512103011060702060558107510651520105591010138515108810101251210108</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
